--- a/public/codebase/quarto-survival-analysis/survival.xlsx
+++ b/public/codebase/quarto-survival-analysis/survival.xlsx
@@ -253,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,9 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,6 +392,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,150 +757,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
         <v>0</v>
       </c>
     </row>
@@ -934,7 +956,7 @@
       <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>0</v>
       </c>
       <c r="S3" s="4">
@@ -946,7 +968,7 @@
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="3">
@@ -1008,7 +1030,7 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>0</v>
       </c>
       <c r="S4" s="4">
@@ -1020,7 +1042,7 @@
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="3">
@@ -1082,7 +1104,7 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0</v>
       </c>
       <c r="S5" s="4">
@@ -1094,7 +1116,7 @@
       <c r="U5" s="1">
         <v>0</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>1</v>
       </c>
       <c r="W5" s="3">
@@ -1156,7 +1178,7 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="4">
@@ -1168,7 +1190,7 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>1</v>
       </c>
       <c r="W6" s="3">
@@ -1230,7 +1252,7 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="4">
@@ -1242,7 +1264,7 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>1</v>
       </c>
       <c r="W7" s="3">
@@ -1304,7 +1326,7 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>0</v>
       </c>
       <c r="S8" s="4">
@@ -1316,7 +1338,7 @@
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>1</v>
       </c>
       <c r="W8" s="3">
@@ -1378,7 +1400,7 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>0</v>
       </c>
       <c r="S9" s="4">
@@ -1390,7 +1412,7 @@
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>0</v>
       </c>
       <c r="W9" s="3">
@@ -1452,7 +1474,7 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>0</v>
       </c>
       <c r="S10" s="4">
@@ -1464,7 +1486,7 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>0</v>
       </c>
       <c r="W10" s="3">
@@ -1526,7 +1548,7 @@
       <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>0</v>
       </c>
       <c r="S11" s="4">
@@ -1538,7 +1560,7 @@
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>0</v>
       </c>
       <c r="W11" s="3">
@@ -1600,7 +1622,7 @@
       <c r="Q12" s="1">
         <v>0</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>0</v>
       </c>
       <c r="S12" s="4">
@@ -1612,7 +1634,7 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>0</v>
       </c>
       <c r="W12" s="3">
@@ -1674,7 +1696,7 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>0</v>
       </c>
       <c r="S13" s="4">
@@ -1686,7 +1708,7 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>0</v>
       </c>
       <c r="W13" s="3">
@@ -1748,7 +1770,7 @@
       <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>0</v>
       </c>
       <c r="S14" s="4">
@@ -1760,7 +1782,7 @@
       <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>0</v>
       </c>
       <c r="W14" s="3">
@@ -1822,7 +1844,7 @@
       <c r="Q15" s="1">
         <v>0</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>1</v>
       </c>
       <c r="S15" s="4">
@@ -1834,7 +1856,7 @@
       <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>0</v>
       </c>
       <c r="W15" s="3">
@@ -1896,7 +1918,7 @@
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>0</v>
       </c>
       <c r="S16" s="4">
@@ -1908,7 +1930,7 @@
       <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>0</v>
       </c>
       <c r="W16" s="3">
@@ -1970,7 +1992,7 @@
       <c r="Q17" s="1">
         <v>0</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>0</v>
       </c>
       <c r="S17" s="4">
@@ -1982,7 +2004,7 @@
       <c r="U17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>0</v>
       </c>
       <c r="W17" s="3">
@@ -2044,7 +2066,7 @@
       <c r="Q18" s="1">
         <v>0</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>0</v>
       </c>
       <c r="S18" s="4">
@@ -2056,7 +2078,7 @@
       <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>0</v>
       </c>
       <c r="W18" s="3">
@@ -2118,7 +2140,7 @@
       <c r="Q19" s="1">
         <v>0</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>0</v>
       </c>
       <c r="S19" s="4">
@@ -2130,7 +2152,7 @@
       <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>0</v>
       </c>
       <c r="W19" s="3">
@@ -2192,7 +2214,7 @@
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <v>0</v>
       </c>
       <c r="S20" s="4">
@@ -2204,7 +2226,7 @@
       <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <v>0</v>
       </c>
       <c r="W20" s="3">
@@ -2266,7 +2288,7 @@
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>0</v>
       </c>
       <c r="S21" s="4">
@@ -2278,7 +2300,7 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="5">
         <v>1</v>
       </c>
       <c r="W21" s="3">
@@ -2340,7 +2362,7 @@
       <c r="Q22" s="1">
         <v>1</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>0</v>
       </c>
       <c r="S22" s="4">
@@ -2352,7 +2374,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="5">
         <v>0</v>
       </c>
       <c r="W22" s="3">
@@ -2414,7 +2436,7 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="5">
         <v>0</v>
       </c>
       <c r="S23" s="4">
@@ -2426,7 +2448,7 @@
       <c r="U23" s="1">
         <v>0</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="5">
         <v>0</v>
       </c>
       <c r="W23" s="3">
@@ -2488,7 +2510,7 @@
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>0</v>
       </c>
       <c r="S24" s="4">
@@ -2500,7 +2522,7 @@
       <c r="U24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="5">
         <v>0</v>
       </c>
       <c r="W24" s="3">
@@ -2562,7 +2584,7 @@
       <c r="Q25" s="1">
         <v>0</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="5">
         <v>0</v>
       </c>
       <c r="S25" s="4">
@@ -2574,7 +2596,7 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="5">
         <v>0</v>
       </c>
       <c r="W25" s="3">
@@ -2636,7 +2658,7 @@
       <c r="Q26" s="1">
         <v>0</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="5">
         <v>0</v>
       </c>
       <c r="S26" s="4">
@@ -2648,7 +2670,7 @@
       <c r="U26" s="1">
         <v>0</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="5">
         <v>0</v>
       </c>
       <c r="W26" s="3">
